--- a/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/lecturer.xlsx
+++ b/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/lecturer.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/718064120a884b76/Documents/NetBeansProjects/Respository/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="28" documentId="11_F25DC773A252ABDACC104844F15A7E505BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{DC1528B5-EFC2-4FF5-BBED-358B18ED4A14}"/>
+  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104844F15A7E505BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40812F6-6BDB-4FA3-9B8B-7B740E177DE7}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="47">
   <si>
     <t>Department</t>
   </si>
@@ -54,12 +54,6 @@
     <t>Foundation</t>
   </si>
   <si>
-    <t>Country</t>
-  </si>
-  <si>
-    <t>Andorra</t>
-  </si>
-  <si>
     <t>IC</t>
   </si>
   <si>
@@ -87,9 +81,6 @@
     <t>123 Tech Lane</t>
   </si>
   <si>
-    <t>AD123456F</t>
-  </si>
-  <si>
     <t>Jane Doe</t>
   </si>
   <si>
@@ -102,9 +93,6 @@
     <t>456 Innovation Drive</t>
   </si>
   <si>
-    <t>AD654321M</t>
-  </si>
-  <si>
     <t>Male</t>
   </si>
   <si>
@@ -120,24 +108,15 @@
     <t>789 Startup Blvd</t>
   </si>
   <si>
-    <t>AD789456F</t>
-  </si>
-  <si>
     <t>Alice Johnson</t>
   </si>
   <si>
-    <t>Healthcare</t>
-  </si>
-  <si>
     <t>bob.brown@example.com</t>
   </si>
   <si>
     <t>1011 Silicon St</t>
   </si>
   <si>
-    <t>AD321654M</t>
-  </si>
-  <si>
     <t>Bob Brown</t>
   </si>
   <si>
@@ -147,10 +126,58 @@
     <t>1213 Cyber Ave</t>
   </si>
   <si>
-    <t>AD987654F</t>
-  </si>
-  <si>
     <t>Eve White</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Pahang</t>
+  </si>
+  <si>
+    <t>Melaka</t>
+  </si>
+  <si>
+    <t>Perak</t>
+  </si>
+  <si>
+    <t>Penang</t>
+  </si>
+  <si>
+    <t>Kuala Lumpur</t>
+  </si>
+  <si>
+    <t>030123091123</t>
+  </si>
+  <si>
+    <t>060123090123</t>
+  </si>
+  <si>
+    <t>040110301234</t>
+  </si>
+  <si>
+    <t>030123118972</t>
+  </si>
+  <si>
+    <t>+60174551234</t>
+  </si>
+  <si>
+    <t>+60174551145</t>
+  </si>
+  <si>
+    <t>+60176672344</t>
+  </si>
+  <si>
+    <t>+60174551267</t>
+  </si>
+  <si>
+    <t>+60143134356</t>
+  </si>
+  <si>
+    <t>Technology</t>
+  </si>
+  <si>
+    <t>110112309113</t>
   </si>
 </sst>
 </file>
@@ -242,23 +269,26 @@
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="8">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -288,6 +318,10 @@
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
 <queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="ExternalData_1" connectionId="1" xr16:uid="{390C3A08-60FF-4BF6-8C59-DE8A7A3523AB}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="0">
   <queryTableRefresh nextId="11">
@@ -312,14 +346,14 @@
   <autoFilter ref="A1:J6" xr:uid="{E0D71866-F8D4-4733-8CDD-2AFBBA76C21C}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{F056DC10-E5A8-4D04-94A1-FF8CA5C42FF3}" uniqueName="1" name="Name" queryTableFieldId="1"/>
-    <tableColumn id="2" xr3:uid="{CC781FA7-AE87-4646-B274-5C26508E4400}" uniqueName="2" name="Email" queryTableFieldId="2" dataDxfId="6"/>
-    <tableColumn id="3" xr3:uid="{76701C08-8DB3-4DB0-9A59-835FFCA2E318}" uniqueName="3" name="Address" queryTableFieldId="3" dataDxfId="5"/>
-    <tableColumn id="4" xr3:uid="{5B1741A3-FE61-4421-9781-8A43EE599996}" uniqueName="4" name="Education" queryTableFieldId="4" dataDxfId="4"/>
-    <tableColumn id="5" xr3:uid="{00D0A3D1-ADD1-4737-92EF-A28FB3FA9C9B}" uniqueName="5" name="Country" queryTableFieldId="5" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{CC781FA7-AE87-4646-B274-5C26508E4400}" uniqueName="2" name="Email" queryTableFieldId="2" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{76701C08-8DB3-4DB0-9A59-835FFCA2E318}" uniqueName="3" name="Address" queryTableFieldId="3" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{5B1741A3-FE61-4421-9781-8A43EE599996}" uniqueName="4" name="Education" queryTableFieldId="4" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00D0A3D1-ADD1-4737-92EF-A28FB3FA9C9B}" uniqueName="5" name="State" queryTableFieldId="5" dataDxfId="4"/>
     <tableColumn id="6" xr3:uid="{85C5A236-4BDC-45E8-952E-E08CB311680D}" uniqueName="6" name="IC" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{46C18C77-F434-4E9D-BD0D-E4C7BDC1CED2}" uniqueName="7" name="Gender" queryTableFieldId="7" dataDxfId="1"/>
-    <tableColumn id="8" xr3:uid="{B8702448-252B-415F-A2B4-BD84855A1EC3}" uniqueName="8" name="Birth Date" queryTableFieldId="8" dataDxfId="0"/>
-    <tableColumn id="9" xr3:uid="{3F966C26-B611-4D85-826A-C06294945796}" uniqueName="9" name="Phone.no" queryTableFieldId="9"/>
+    <tableColumn id="7" xr3:uid="{46C18C77-F434-4E9D-BD0D-E4C7BDC1CED2}" uniqueName="7" name="Gender" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{B8702448-252B-415F-A2B4-BD84855A1EC3}" uniqueName="8" name="Birth Date" queryTableFieldId="8" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{3F966C26-B611-4D85-826A-C06294945796}" uniqueName="9" name="Phone.no" queryTableFieldId="9" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{70DF71DC-E181-4360-B12E-224A42CB598F}" uniqueName="10" name="Department" queryTableFieldId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -592,7 +626,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M6" sqref="M6"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -602,16 +636,16 @@
     <col min="3" max="3" width="18.26953125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.453125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.81640625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.453125" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="9.26953125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.6328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.1796875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" style="8" customWidth="1"/>
     <col min="10" max="10" width="13.36328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
-        <v>12</v>
+      <c r="A1" s="2" t="s">
+        <v>10</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
@@ -623,182 +657,182 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="F1" t="s">
-        <v>7</v>
-      </c>
       <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
         <v>8</v>
       </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="6" t="s">
+      <c r="I1" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" s="5" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A2" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="A2" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" t="s">
         <v>4</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>9</v>
+      <c r="E2" t="s">
+        <v>31</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="G2" t="s">
+        <v>7</v>
       </c>
       <c r="H2" s="1">
         <v>45413</v>
       </c>
-      <c r="I2">
-        <v>376123456</v>
-      </c>
-      <c r="J2" s="7" t="s">
-        <v>13</v>
+      <c r="I2" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="A3" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" s="2" t="s">
+      <c r="B3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>22</v>
+      <c r="E3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="G3" t="s">
+        <v>18</v>
       </c>
       <c r="H3" s="1">
         <v>45413</v>
       </c>
-      <c r="I3">
-        <v>376654321</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>18</v>
+      <c r="I3" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A4" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="D4" s="2" t="s">
+      <c r="A4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="E4" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>9</v>
+      <c r="E4" t="s">
+        <v>33</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="G4" t="s">
+        <v>7</v>
       </c>
       <c r="H4" s="1">
         <v>45413</v>
       </c>
-      <c r="I4">
-        <v>376789456</v>
-      </c>
-      <c r="J4" s="7" t="s">
-        <v>24</v>
+      <c r="I4" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A5" s="5" t="s">
-        <v>33</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D5" s="2" t="s">
+      <c r="A5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>22</v>
+      <c r="E5" t="s">
+        <v>34</v>
+      </c>
+      <c r="F5" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="G5" t="s">
+        <v>18</v>
       </c>
       <c r="H5" s="1">
         <v>45413</v>
       </c>
-      <c r="I5">
-        <v>376321654</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>29</v>
+      <c r="I5" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="A6" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="2" t="s">
+      <c r="A6" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>9</v>
+      <c r="F6" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="G6" t="s">
+        <v>7</v>
       </c>
       <c r="H6" s="1">
         <v>45413</v>
       </c>
-      <c r="I6">
-        <v>376987654</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>3</v>
+      <c r="I6" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/lecturer.xlsx
+++ b/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/lecturer.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/718064120a884b76/Documents/NetBeansProjects/Respository/ProjectManagement/src/main/resources/com/mycompany/projectmanagement/excel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="68" documentId="11_F25DC773A252ABDACC104844F15A7E505BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D40812F6-6BDB-4FA3-9B8B-7B740E177DE7}"/>
+  <xr:revisionPtr revIDLastSave="69" documentId="11_F25DC773A252ABDACC104844F15A7E505BDE58E9" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9FABDB31-B9D1-4F5B-A75A-2CCE41789991}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -135,9 +135,6 @@
     <t>Pahang</t>
   </si>
   <si>
-    <t>Melaka</t>
-  </si>
-  <si>
     <t>Perak</t>
   </si>
   <si>
@@ -178,6 +175,9 @@
   </si>
   <si>
     <t>110112309113</t>
+  </si>
+  <si>
+    <t>Malacca</t>
   </si>
 </sst>
 </file>
@@ -288,10 +288,10 @@
       <numFmt numFmtId="19" formatCode="yyyy/m/d"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="30" formatCode="@"/>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
+      <numFmt numFmtId="30" formatCode="@"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -350,8 +350,8 @@
     <tableColumn id="3" xr3:uid="{76701C08-8DB3-4DB0-9A59-835FFCA2E318}" uniqueName="3" name="Address" queryTableFieldId="3" dataDxfId="6"/>
     <tableColumn id="4" xr3:uid="{5B1741A3-FE61-4421-9781-8A43EE599996}" uniqueName="4" name="Education" queryTableFieldId="4" dataDxfId="5"/>
     <tableColumn id="5" xr3:uid="{00D0A3D1-ADD1-4737-92EF-A28FB3FA9C9B}" uniqueName="5" name="State" queryTableFieldId="5" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{85C5A236-4BDC-45E8-952E-E08CB311680D}" uniqueName="6" name="IC" queryTableFieldId="6" dataDxfId="2"/>
-    <tableColumn id="7" xr3:uid="{46C18C77-F434-4E9D-BD0D-E4C7BDC1CED2}" uniqueName="7" name="Gender" queryTableFieldId="7" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{85C5A236-4BDC-45E8-952E-E08CB311680D}" uniqueName="6" name="IC" queryTableFieldId="6" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{46C18C77-F434-4E9D-BD0D-E4C7BDC1CED2}" uniqueName="7" name="Gender" queryTableFieldId="7" dataDxfId="2"/>
     <tableColumn id="8" xr3:uid="{B8702448-252B-415F-A2B4-BD84855A1EC3}" uniqueName="8" name="Birth Date" queryTableFieldId="8" dataDxfId="1"/>
     <tableColumn id="9" xr3:uid="{3F966C26-B611-4D85-826A-C06294945796}" uniqueName="9" name="Phone.no" queryTableFieldId="9" dataDxfId="0"/>
     <tableColumn id="10" xr3:uid="{70DF71DC-E181-4360-B12E-224A42CB598F}" uniqueName="10" name="Department" queryTableFieldId="10"/>
@@ -626,7 +626,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -692,7 +692,7 @@
         <v>31</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="G2" t="s">
         <v>7</v>
@@ -701,7 +701,7 @@
         <v>45413</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="J2" s="6" t="s">
         <v>11</v>
@@ -721,10 +721,10 @@
         <v>4</v>
       </c>
       <c r="E3" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="F3" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
         <v>18</v>
@@ -733,7 +733,7 @@
         <v>45413</v>
       </c>
       <c r="I3" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="J3" s="7" t="s">
         <v>15</v>
@@ -753,10 +753,10 @@
         <v>4</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G4" t="s">
         <v>7</v>
@@ -765,7 +765,7 @@
         <v>45413</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="J4" s="6" t="s">
         <v>20</v>
@@ -785,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F5" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="G5" t="s">
         <v>18</v>
@@ -797,10 +797,10 @@
         <v>45413</v>
       </c>
       <c r="I5" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
@@ -817,10 +817,10 @@
         <v>4</v>
       </c>
       <c r="E6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F6" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G6" t="s">
         <v>7</v>
@@ -829,7 +829,7 @@
         <v>45413</v>
       </c>
       <c r="I6" s="8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J6" s="6" t="s">
         <v>11</v>
